--- a/ambico-log.xlsx
+++ b/ambico-log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ambico\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5DF69F79-E6D8-4A6A-98D2-851BE75BD24F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>case</t>
   </si>
@@ -76,16 +77,25 @@
   </si>
   <si>
     <t>ubah bentuk input lembur, hanya input tgl lembur dan jam lembur</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>noted</t>
+  </si>
+  <si>
+    <t>minta ke syifa contoh kitir lembur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +107,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,6 +191,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,14 +480,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -588,16 +614,17 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
+      <c r="B10" s="18">
         <v>7</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="19">
         <v>43321</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="20">
         <v>0.4604166666666667</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -612,21 +639,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="100.7109375" style="11" customWidth="1"/>
@@ -658,6 +685,37 @@
         <v>9</v>
       </c>
       <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43328</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43328</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/ambico-log.xlsx
+++ b/ambico-log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ambico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5DF69F79-E6D8-4A6A-98D2-851BE75BD24F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C5BCCCCC-B23C-4D12-8BC5-DC48C17B4979}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>case</t>
   </si>
@@ -139,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,6 +183,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -193,13 +202,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,7 +496,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -502,15 +511,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="2:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
@@ -558,16 +567,17 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
+      <c r="B6" s="15">
         <v>3</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="16">
         <v>43321</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="17">
         <v>0.4597222222222222</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -614,17 +624,17 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18">
+      <c r="B10" s="15">
         <v>7</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="16">
         <v>43321</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>0.4604166666666667</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -640,13 +650,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:F5"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -661,20 +671,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
@@ -684,19 +694,19 @@
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+      <c r="B4" s="21">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="22">
         <v>43328</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="23">
         <v>3.2638888888888891E-2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="21" t="s">
         <v>17</v>
       </c>
     </row>
@@ -715,6 +725,20 @@
       </c>
       <c r="F5" s="11" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="21">
+        <v>3</v>
+      </c>
+      <c r="C6" s="22">
+        <v>43328</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
